--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -742,24 +742,24 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>roles</t>
   </si>
   <si>
-    <t>clientId</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
@@ -769,133 +769,133 @@
     <t>data</t>
   </si>
   <si>
+    <t>spendTime</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
-    <t>spendTime</t>
+    <t>url</t>
   </si>
   <si>
     <t>basePath</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>uri</t>
   </si>
   <si>
     <t>method</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>list</t>
   </si>
   <si>
-    <t>pageSize</t>
+    <t>total</t>
   </si>
   <si>
     <t>totalPage</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>pageNum</t>
+    <t>AUTHORITY_CLAIM_NAME</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_PREFIX</t>
+  </si>
+  <si>
+    <t>ADMIN_URL_PATTERN</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>ADMIN_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>AUTHORITY_PREFIX</t>
   </si>
   <si>
     <t>RESOURCE_ROLES_MAP_KEY</t>
   </si>
   <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
-  </si>
-  <si>
-    <t>ADMIN_CLIENT_ID</t>
+    <t>USER_TOKEN_HEADER</t>
   </si>
   <si>
     <t>PORTAL_CLIENT_ID</t>
   </si>
   <si>
-    <t>JWT_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>USER_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_PREFIX</t>
+    <t>VALIDATE_FAILED</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>FORBIDDEN</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>VALIDATE_FAILED</t>
-  </si>
-  <si>
     <t>UNAUTHORIZED</t>
   </si>
   <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>contactName</t>
   </si>
   <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
     <t>apiBasePackage</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>enableSecurity</t>
+  </si>
+  <si>
     <t>contactUrl</t>
   </si>
   <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>enableSecurity</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>$assertionsDisabled</t>
   </si>
   <si>
     <t>errorCode</t>
@@ -7003,7 +7003,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -7031,7 +7031,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -7045,7 +7045,7 @@
         <v>82</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -7059,7 +7059,7 @@
         <v>82</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -7073,7 +7073,7 @@
         <v>82</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -7129,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -7143,7 +7143,7 @@
         <v>82</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -7157,7 +7157,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -7171,7 +7171,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -7179,7 +7179,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>82</v>
@@ -7193,13 +7193,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -7207,7 +7207,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>82</v>
@@ -7221,13 +7221,13 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -7241,7 +7241,7 @@
         <v>82</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -7297,7 +7297,7 @@
         <v>82</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -7325,7 +7325,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -7501,13 +7501,13 @@
         <v>109</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -7557,13 +7557,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -7571,13 +7571,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -7641,7 +7641,7 @@
         <v>170</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>82</v>
@@ -7655,7 +7655,7 @@
         <v>170</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>82</v>
@@ -7669,7 +7669,7 @@
         <v>170</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>82</v>
@@ -7683,13 +7683,13 @@
         <v>170</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -7697,13 +7697,13 @@
         <v>170</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -7725,7 +7725,7 @@
         <v>190</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>82</v>
@@ -7739,7 +7739,7 @@
         <v>190</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>82</v>
@@ -7753,7 +7753,7 @@
         <v>190</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>82</v>
@@ -7767,13 +7767,13 @@
         <v>190</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -7781,7 +7781,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>82</v>
@@ -7795,7 +7795,7 @@
         <v>190</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>82</v>
@@ -7809,13 +7809,13 @@
         <v>190</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -7823,7 +7823,7 @@
         <v>190</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>82</v>
@@ -7857,7 +7857,7 @@
         <v>219</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -7871,7 +7871,7 @@
         <v>219</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
@@ -7879,13 +7879,13 @@
         <v>216</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -7893,13 +7893,13 @@
         <v>216</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>53</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -10562,7 +10562,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>298</v>
@@ -10579,7 +10579,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>299</v>
@@ -10596,7 +10596,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>299</v>
@@ -10613,7 +10613,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>298</v>
@@ -10630,7 +10630,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>299</v>
@@ -10664,7 +10664,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>299</v>
@@ -10681,7 +10681,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>299</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="330">
   <si>
     <t>Class Name</t>
   </si>
@@ -742,31 +744,55 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>clientId</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>data</t>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>basePath</t>
   </si>
   <si>
     <t>spendTime</t>
@@ -775,132 +801,108 @@
     <t>ip</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>basePath</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>totalPage</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>pageNum</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
-    <t>totalPage</t>
+    <t>JWT_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>PORTAL_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_PREFIX</t>
+  </si>
+  <si>
+    <t>ADMIN_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>AUTHORITY_PREFIX</t>
+  </si>
+  <si>
+    <t>ADMIN_URL_PATTERN</t>
+  </si>
+  <si>
+    <t>USER_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>RESOURCE_ROLES_MAP_KEY</t>
   </si>
   <si>
     <t>AUTHORITY_CLAIM_NAME</t>
   </si>
   <si>
-    <t>JWT_TOKEN_PREFIX</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>ADMIN_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>RESOURCE_ROLES_MAP_KEY</t>
-  </si>
-  <si>
-    <t>USER_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>PORTAL_CLIENT_ID</t>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
   </si>
   <si>
     <t>VALIDATE_FAILED</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>contactUrl</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
     <t>contactName</t>
   </si>
   <si>
+    <t>enableSecurity</t>
+  </si>
+  <si>
     <t>contactEmail</t>
   </si>
   <si>
     <t>apiBasePackage</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>enableSecurity</t>
-  </si>
-  <si>
-    <t>contactUrl</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>errorCode</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -938,6 +940,78 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -6943,6 +7017,2436 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C204"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -7003,7 +9507,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -7031,7 +9535,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -7059,7 +9563,7 @@
         <v>82</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -7101,7 +9605,7 @@
         <v>82</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -7115,7 +9619,7 @@
         <v>82</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -7129,7 +9633,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -7157,7 +9661,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -7171,7 +9675,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -7185,7 +9689,7 @@
         <v>82</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -7199,7 +9703,7 @@
         <v>82</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -7255,7 +9759,7 @@
         <v>82</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -7311,7 +9815,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -7325,7 +9829,7 @@
         <v>82</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -7339,7 +9843,7 @@
         <v>82</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -7353,7 +9857,7 @@
         <v>82</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -7490,10 +9994,10 @@
         <v>274</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -7501,13 +10005,13 @@
         <v>109</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
@@ -7518,10 +10022,10 @@
         <v>275</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -7557,13 +10061,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -7571,13 +10075,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -7669,7 +10173,7 @@
         <v>170</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>82</v>
@@ -7683,7 +10187,7 @@
         <v>170</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>82</v>
@@ -7697,7 +10201,7 @@
         <v>170</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>82</v>
@@ -7725,7 +10229,7 @@
         <v>190</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>82</v>
@@ -7739,7 +10243,7 @@
         <v>190</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>82</v>
@@ -7753,13 +10257,13 @@
         <v>190</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -7767,7 +10271,7 @@
         <v>190</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>82</v>
@@ -7781,7 +10285,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>82</v>
@@ -7795,7 +10299,7 @@
         <v>190</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>82</v>
@@ -7815,7 +10319,7 @@
         <v>82</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -7823,7 +10327,7 @@
         <v>190</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>82</v>
@@ -7857,7 +10361,7 @@
         <v>219</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
@@ -7868,10 +10372,10 @@
         <v>291</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>53</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -7879,7 +10383,7 @@
         <v>216</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>219</v>
@@ -7896,10 +10400,10 @@
         <v>292</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>215</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -10562,7 +13066,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>298</v>
@@ -10579,7 +13083,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>299</v>
@@ -10596,7 +13100,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>299</v>
@@ -10613,7 +13117,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>298</v>
@@ -10630,7 +13134,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>299</v>
@@ -10647,7 +13151,7 @@
         <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>298</v>
@@ -10664,7 +13168,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>299</v>
@@ -10681,7 +13185,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>299</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -744,40 +744,55 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>roles</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>clientId</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>message</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>basePath</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>spendTime</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>ip</t>
   </si>
   <si>
     <t>parameter</t>
@@ -786,37 +801,25 @@
     <t>result</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>basePath</t>
-  </si>
-  <si>
-    <t>spendTime</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>totalPage</t>
   </si>
   <si>
-    <t>list</t>
+    <t>total</t>
   </si>
   <si>
     <t>pageSize</t>
   </si>
   <si>
-    <t>pageNum</t>
-  </si>
-  <si>
-    <t>total</t>
+    <t>USER_TOKEN_HEADER</t>
   </si>
   <si>
     <t>JWT_TOKEN_HEADER</t>
@@ -825,69 +828,66 @@
     <t>PORTAL_CLIENT_ID</t>
   </si>
   <si>
+    <t>AUTHORITY_PREFIX</t>
+  </si>
+  <si>
+    <t>ADMIN_URL_PATTERN</t>
+  </si>
+  <si>
+    <t>ADMIN_CLIENT_ID</t>
+  </si>
+  <si>
     <t>JWT_TOKEN_PREFIX</t>
   </si>
   <si>
-    <t>ADMIN_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>USER_TOKEN_HEADER</t>
+    <t>AUTHORITY_CLAIM_NAME</t>
   </si>
   <si>
     <t>RESOURCE_ROLES_MAP_KEY</t>
   </si>
   <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
+    <t>VALIDATE_FAILED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>VALIDATE_FAILED</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
     <t>title</t>
   </si>
   <si>
+    <t>enableSecurity</t>
+  </si>
+  <si>
+    <t>apiBasePackage</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
     <t>contactUrl</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>enableSecurity</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>apiBasePackage</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
@@ -897,10 +897,10 @@
     <t>serialVersionUID</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>errorCode</t>
-  </si>
-  <si>
-    <t>$assertionsDisabled</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -9507,7 +9507,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -9521,7 +9521,7 @@
         <v>82</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -9535,7 +9535,7 @@
         <v>82</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -9549,7 +9549,7 @@
         <v>82</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -9577,7 +9577,7 @@
         <v>82</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -9591,7 +9591,7 @@
         <v>82</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -9605,7 +9605,7 @@
         <v>82</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -9619,7 +9619,7 @@
         <v>82</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -9633,7 +9633,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -9661,7 +9661,7 @@
         <v>82</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -9675,7 +9675,7 @@
         <v>82</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -9689,7 +9689,7 @@
         <v>82</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -9697,7 +9697,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>82</v>
@@ -9711,7 +9711,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>82</v>
@@ -9725,13 +9725,13 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -9759,7 +9759,7 @@
         <v>82</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -9773,7 +9773,7 @@
         <v>82</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -9843,7 +9843,7 @@
         <v>82</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -9857,7 +9857,7 @@
         <v>82</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -9994,10 +9994,10 @@
         <v>274</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -10005,13 +10005,13 @@
         <v>109</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -10019,13 +10019,13 @@
         <v>109</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
@@ -10061,13 +10061,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -10075,13 +10075,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
@@ -10089,13 +10089,13 @@
         <v>109</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -10137,7 +10137,7 @@
         <v>82</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -10173,7 +10173,7 @@
         <v>170</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>82</v>
@@ -10187,13 +10187,13 @@
         <v>170</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -10201,7 +10201,7 @@
         <v>170</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>82</v>
@@ -10229,13 +10229,13 @@
         <v>190</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -10243,7 +10243,7 @@
         <v>190</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>82</v>
@@ -10257,13 +10257,13 @@
         <v>190</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -10299,7 +10299,7 @@
         <v>190</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>82</v>
@@ -10313,7 +10313,7 @@
         <v>190</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>82</v>
@@ -10369,13 +10369,13 @@
         <v>216</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
@@ -10383,13 +10383,13 @@
         <v>216</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>219</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -10400,10 +10400,10 @@
         <v>292</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>9</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -13066,7 +13066,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>298</v>
@@ -13083,7 +13083,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>299</v>
@@ -13100,7 +13100,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>299</v>
@@ -13117,7 +13117,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>298</v>
@@ -13134,7 +13134,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>299</v>
@@ -13151,7 +13151,7 @@
         <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>298</v>
@@ -13168,7 +13168,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>299</v>
@@ -13185,7 +13185,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>299</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="353">
   <si>
     <t>Class Name</t>
   </si>
@@ -744,31 +744,46 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>clientId</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>roles</t>
+    <t>message</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>message</t>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>spendTime</t>
   </si>
   <si>
     <t>basePath</t>
@@ -777,73 +792,67 @@
     <t>description</t>
   </si>
   <si>
-    <t>spendTime</t>
+    <t>url</t>
   </si>
   <si>
     <t>method</t>
   </si>
   <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>totalPage</t>
+  </si>
+  <si>
     <t>pageNum</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>list</t>
   </si>
   <si>
-    <t>totalPage</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>pageSize</t>
+    <t>JWT_TOKEN_HEADER</t>
   </si>
   <si>
     <t>USER_TOKEN_HEADER</t>
   </si>
   <si>
-    <t>JWT_TOKEN_HEADER</t>
+    <t>ADMIN_URL_PATTERN</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_PREFIX</t>
+  </si>
+  <si>
+    <t>AUTHORITY_CLAIM_NAME</t>
+  </si>
+  <si>
+    <t>ADMIN_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>AUTHORITY_PREFIX</t>
+  </si>
+  <si>
+    <t>RESOURCE_ROLES_MAP_KEY</t>
   </si>
   <si>
     <t>PORTAL_CLIENT_ID</t>
   </si>
   <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>ADMIN_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_PREFIX</t>
-  </si>
-  <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
-  </si>
-  <si>
-    <t>RESOURCE_ROLES_MAP_KEY</t>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
   </si>
   <si>
     <t>VALIDATE_FAILED</t>
@@ -852,39 +861,30 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
     <t>FORBIDDEN</t>
   </si>
   <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>apiBasePackage</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
+    <t>contactName</t>
+  </si>
+  <si>
     <t>enableSecurity</t>
   </si>
   <si>
-    <t>apiBasePackage</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
     <t>contactUrl</t>
   </si>
   <si>
@@ -945,73 +945,142 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>153</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>UserDto()</t>
+  </si>
+  <si>
+    <t>CommonResult()</t>
+  </si>
+  <si>
+    <t>CommonResult(long, java.lang.String, java.lang.Object)</t>
+  </si>
+  <si>
+    <t>WebLog()</t>
+  </si>
+  <si>
+    <t>BaseSwaggerConfig$1(com.macro.mall.common.config.BaseSwaggerConfig)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>CommonPage()</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>BaseRedisConfig()</t>
+  </si>
+  <si>
+    <t>ResultCode(java.lang.String, int, long, java.lang.String)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RedisServiceImpl()</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>BaseSwaggerConfig()</t>
+  </si>
+  <si>
+    <t>GlobalExceptionHandler()</t>
+  </si>
+  <si>
+    <t>104</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>SwaggerProperties(java.lang.String, boolean, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.lang.String)</t>
+  </si>
+  <si>
+    <t>SwaggerProperties$SwaggerPropertiesBuilder()</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>WebLogAspect()</t>
+  </si>
+  <si>
+    <t>Asserts()</t>
+  </si>
+  <si>
+    <t>ApiException(com.macro.mall.common.api.IErrorCode)</t>
+  </si>
+  <si>
+    <t>ApiException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>ApiException(java.lang.Throwable)</t>
+  </si>
+  <si>
+    <t>ApiException(java.lang.String, java.lang.Throwable)</t>
   </si>
 </sst>
 </file>
@@ -7062,7 +7131,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
@@ -7070,7 +7139,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7">
@@ -7078,7 +7147,7 @@
         <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
@@ -7086,7 +7155,7 @@
         <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
@@ -7094,7 +7163,7 @@
         <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
@@ -7102,7 +7171,7 @@
         <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -7118,7 +7187,7 @@
         <v>175</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
@@ -7126,7 +7195,7 @@
         <v>177</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14">
@@ -7134,7 +7203,7 @@
         <v>170</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15">
@@ -7142,7 +7211,7 @@
         <v>190</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16">
@@ -7150,7 +7219,7 @@
         <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17">
@@ -7158,7 +7227,7 @@
         <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18">
@@ -7166,7 +7235,7 @@
         <v>215</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19">
@@ -7174,7 +7243,7 @@
         <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20">
@@ -7192,7 +7261,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7382,18 +7451,18 @@
         <v>22</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19">
@@ -7401,10 +7470,10 @@
         <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20">
@@ -7412,10 +7481,10 @@
         <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
@@ -7423,7 +7492,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>322</v>
@@ -7434,7 +7503,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>322</v>
@@ -7445,7 +7514,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>322</v>
@@ -7456,10 +7525,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25">
@@ -7467,7 +7536,7 @@
         <v>40</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>322</v>
@@ -7478,10 +7547,10 @@
         <v>40</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27">
@@ -7489,10 +7558,10 @@
         <v>40</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
@@ -7500,10 +7569,10 @@
         <v>40</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29">
@@ -7511,7 +7580,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>322</v>
@@ -7522,7 +7591,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>322</v>
@@ -7533,7 +7602,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>322</v>
@@ -7544,7 +7613,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>322</v>
@@ -7555,43 +7624,43 @@
         <v>40</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37">
@@ -7599,7 +7668,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>322</v>
@@ -7610,7 +7679,7 @@
         <v>58</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>322</v>
@@ -7621,7 +7690,7 @@
         <v>58</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>322</v>
@@ -7632,7 +7701,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>322</v>
@@ -7643,7 +7712,7 @@
         <v>58</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>322</v>
@@ -7654,7 +7723,7 @@
         <v>58</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>322</v>
@@ -7665,7 +7734,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>322</v>
@@ -7676,7 +7745,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>322</v>
@@ -7687,7 +7756,7 @@
         <v>58</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>322</v>
@@ -7698,7 +7767,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>322</v>
@@ -7709,7 +7778,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>322</v>
@@ -7720,7 +7789,7 @@
         <v>58</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>322</v>
@@ -7731,7 +7800,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>322</v>
@@ -7742,7 +7811,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>322</v>
@@ -7753,7 +7822,7 @@
         <v>58</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>322</v>
@@ -7764,7 +7833,7 @@
         <v>58</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>322</v>
@@ -7775,7 +7844,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>322</v>
@@ -7786,7 +7855,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>322</v>
@@ -7797,7 +7866,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>322</v>
@@ -7808,7 +7877,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>322</v>
@@ -7819,10 +7888,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58">
@@ -7830,7 +7899,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>322</v>
@@ -7841,109 +7910,109 @@
         <v>58</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>89</v>
+        <v>328</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69">
@@ -7951,10 +8020,10 @@
         <v>86</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70">
@@ -7962,10 +8031,10 @@
         <v>86</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71">
@@ -7973,7 +8042,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>322</v>
@@ -7984,7 +8053,7 @@
         <v>86</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>322</v>
@@ -7995,7 +8064,7 @@
         <v>86</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>322</v>
@@ -8006,7 +8075,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>322</v>
@@ -8017,7 +8086,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>322</v>
@@ -8025,43 +8094,43 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>322</v>
@@ -8069,109 +8138,109 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>322</v>
@@ -8179,35 +8248,35 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>155</v>
+        <v>335</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93">
@@ -8215,10 +8284,10 @@
         <v>123</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94">
@@ -8226,10 +8295,10 @@
         <v>123</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95">
@@ -8237,7 +8306,7 @@
         <v>123</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>322</v>
@@ -8248,10 +8317,10 @@
         <v>123</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97">
@@ -8259,7 +8328,7 @@
         <v>123</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>322</v>
@@ -8270,7 +8339,7 @@
         <v>123</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>322</v>
@@ -8281,10 +8350,10 @@
         <v>123</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100">
@@ -8292,10 +8361,10 @@
         <v>123</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101">
@@ -8303,10 +8372,10 @@
         <v>123</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="102">
@@ -8314,7 +8383,7 @@
         <v>123</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>322</v>
@@ -8325,7 +8394,7 @@
         <v>123</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>322</v>
@@ -8336,10 +8405,10 @@
         <v>123</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105">
@@ -8347,7 +8416,7 @@
         <v>123</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>322</v>
@@ -8358,10 +8427,10 @@
         <v>123</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107">
@@ -8369,10 +8438,10 @@
         <v>123</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108">
@@ -8380,7 +8449,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>322</v>
@@ -8391,10 +8460,10 @@
         <v>123</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110">
@@ -8402,10 +8471,10 @@
         <v>123</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111">
@@ -8413,10 +8482,10 @@
         <v>123</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112">
@@ -8424,7 +8493,7 @@
         <v>123</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>322</v>
@@ -8435,10 +8504,10 @@
         <v>123</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114">
@@ -8446,10 +8515,10 @@
         <v>123</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115">
@@ -8457,10 +8526,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116">
@@ -8468,10 +8537,10 @@
         <v>123</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117">
@@ -8479,10 +8548,10 @@
         <v>123</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118">
@@ -8490,29 +8559,29 @@
         <v>123</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>322</v>
@@ -8520,131 +8589,131 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>322</v>
@@ -8652,90 +8721,90 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141">
@@ -8743,7 +8812,7 @@
         <v>170</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>322</v>
@@ -8754,7 +8823,7 @@
         <v>170</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>322</v>
@@ -8765,7 +8834,7 @@
         <v>170</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>322</v>
@@ -8776,7 +8845,7 @@
         <v>170</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>322</v>
@@ -8787,7 +8856,7 @@
         <v>170</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>322</v>
@@ -8798,7 +8867,7 @@
         <v>170</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>322</v>
@@ -8809,7 +8878,7 @@
         <v>170</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>322</v>
@@ -8820,10 +8889,10 @@
         <v>170</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149">
@@ -8831,7 +8900,7 @@
         <v>170</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>322</v>
@@ -8842,117 +8911,117 @@
         <v>170</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>322</v>
@@ -8960,252 +9029,252 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>299</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>299</v>
@@ -9213,10 +9282,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>299</v>
@@ -9224,57 +9293,57 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190">
@@ -9282,7 +9351,7 @@
         <v>107</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>299</v>
@@ -9293,7 +9362,7 @@
         <v>107</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>299</v>
@@ -9304,7 +9373,7 @@
         <v>107</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>299</v>
@@ -9315,7 +9384,7 @@
         <v>107</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>299</v>
@@ -9326,7 +9395,7 @@
         <v>107</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>299</v>
@@ -9337,7 +9406,7 @@
         <v>107</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>299</v>
@@ -9348,7 +9417,7 @@
         <v>107</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>299</v>
@@ -9359,7 +9428,7 @@
         <v>107</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>299</v>
@@ -9370,7 +9439,7 @@
         <v>107</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>299</v>
@@ -9381,7 +9450,7 @@
         <v>107</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>299</v>
@@ -9392,7 +9461,7 @@
         <v>107</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>299</v>
@@ -9403,7 +9472,7 @@
         <v>107</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>299</v>
@@ -9414,7 +9483,7 @@
         <v>107</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>299</v>
@@ -9425,7 +9494,7 @@
         <v>107</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>299</v>
@@ -9436,9 +9505,218 @@
         <v>107</v>
       </c>
       <c r="B204" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B223" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C204" t="s" s="0">
+      <c r="C223" t="s" s="0">
         <v>299</v>
       </c>
     </row>
@@ -9507,7 +9785,7 @@
         <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -9521,7 +9799,7 @@
         <v>82</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -9549,7 +9827,7 @@
         <v>82</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -9563,7 +9841,7 @@
         <v>82</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -9577,7 +9855,7 @@
         <v>82</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -9591,7 +9869,7 @@
         <v>82</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -9619,7 +9897,7 @@
         <v>82</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -9633,7 +9911,7 @@
         <v>82</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -9647,7 +9925,7 @@
         <v>82</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -9655,13 +9933,13 @@
         <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -9669,7 +9947,7 @@
         <v>58</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>82</v>
@@ -9683,13 +9961,13 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -9697,13 +9975,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -9731,7 +10009,7 @@
         <v>82</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -9759,7 +10037,7 @@
         <v>82</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -9773,7 +10051,7 @@
         <v>82</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -9801,7 +10079,7 @@
         <v>82</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -9815,7 +10093,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -9843,7 +10121,7 @@
         <v>82</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -9857,7 +10135,7 @@
         <v>82</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -10019,13 +10297,13 @@
         <v>109</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -10033,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -10047,7 +10325,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -10061,13 +10339,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -10078,10 +10356,10 @@
         <v>279</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -10089,7 +10367,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>82</v>
@@ -10137,7 +10415,7 @@
         <v>82</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -10159,7 +10437,7 @@
         <v>170</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>82</v>
@@ -10173,7 +10451,7 @@
         <v>170</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>82</v>
@@ -10187,13 +10465,13 @@
         <v>170</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -10201,7 +10479,7 @@
         <v>170</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>82</v>
@@ -10229,13 +10507,13 @@
         <v>190</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>82</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -10243,7 +10521,7 @@
         <v>190</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>82</v>
@@ -10257,7 +10535,7 @@
         <v>190</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>82</v>
@@ -10271,7 +10549,7 @@
         <v>190</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>82</v>
@@ -10285,7 +10563,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>82</v>
@@ -10305,7 +10583,7 @@
         <v>82</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -10313,7 +10591,7 @@
         <v>190</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>82</v>
@@ -10327,7 +10605,7 @@
         <v>190</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>82</v>
@@ -10369,13 +10647,13 @@
         <v>216</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>219</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -10383,13 +10661,13 @@
         <v>216</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>219</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66">
@@ -13066,7 +13344,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>298</v>
@@ -13083,7 +13361,7 @@
         <v>109</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>299</v>
@@ -13100,7 +13378,7 @@
         <v>109</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>299</v>
@@ -13117,7 +13395,7 @@
         <v>109</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>298</v>
@@ -13134,7 +13412,7 @@
         <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>299</v>
@@ -13151,7 +13429,7 @@
         <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>298</v>
@@ -13168,7 +13446,7 @@
         <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>299</v>
@@ -13185,7 +13463,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>299</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="355">
   <si>
     <t>Class Name</t>
   </si>
@@ -954,7 +954,7 @@
     <t>263</t>
   </si>
   <si>
-    <t>0</t>
+    <t>22</t>
   </si>
   <si>
     <t>54</t>
@@ -966,36 +966,42 @@
     <t>9</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>UserDto()</t>
   </si>
   <si>
@@ -1005,15 +1011,18 @@
     <t>CommonResult(long, java.lang.String, java.lang.Object)</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>WebLog()</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>BaseSwaggerConfig$1(com.macro.mall.common.config.BaseSwaggerConfig)</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>CommonPage()</t>
   </si>
   <si>
@@ -1021,9 +1030,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>BaseRedisConfig()</t>
@@ -7187,7 +7193,7 @@
         <v>175</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13">
@@ -7243,7 +7249,7 @@
         <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20">
@@ -7251,7 +7257,7 @@
         <v>107</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -7286,7 +7292,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
@@ -7297,7 +7303,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4">
@@ -7308,7 +7314,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -7319,7 +7325,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
@@ -7330,7 +7336,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -7341,7 +7347,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -7352,7 +7358,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
@@ -7363,7 +7369,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -7374,7 +7380,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
@@ -7385,7 +7391,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12">
@@ -7396,7 +7402,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13">
@@ -7407,7 +7413,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14">
@@ -7418,7 +7424,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
@@ -7429,7 +7435,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16">
@@ -7440,7 +7446,7 @@
         <v>37</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17">
@@ -7451,7 +7457,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18">
@@ -7459,10 +7465,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19">
@@ -7473,7 +7479,7 @@
         <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20">
@@ -7484,7 +7490,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21">
@@ -7495,7 +7501,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22">
@@ -7506,7 +7512,7 @@
         <v>54</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23">
@@ -7517,7 +7523,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24">
@@ -7528,7 +7534,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25">
@@ -7539,7 +7545,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26">
@@ -7550,7 +7556,7 @@
         <v>43</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27">
@@ -7561,7 +7567,7 @@
         <v>56</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
@@ -7572,7 +7578,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29">
@@ -7583,7 +7589,7 @@
         <v>52</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -7594,7 +7600,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
@@ -7605,7 +7611,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
@@ -7616,7 +7622,7 @@
         <v>49</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
@@ -7627,7 +7633,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -7638,7 +7644,7 @@
         <v>50</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35">
@@ -7646,7 +7652,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>298</v>
@@ -7657,10 +7663,10 @@
         <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
@@ -7671,7 +7677,7 @@
         <v>62</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
@@ -7682,7 +7688,7 @@
         <v>12</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
@@ -7693,7 +7699,7 @@
         <v>70</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
@@ -7704,7 +7710,7 @@
         <v>69</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
@@ -7715,7 +7721,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
@@ -7726,7 +7732,7 @@
         <v>74</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43">
@@ -7737,7 +7743,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44">
@@ -7748,7 +7754,7 @@
         <v>76</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
@@ -7759,7 +7765,7 @@
         <v>67</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46">
@@ -7770,7 +7776,7 @@
         <v>60</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
@@ -7781,7 +7787,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48">
@@ -7792,7 +7798,7 @@
         <v>71</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49">
@@ -7803,7 +7809,7 @@
         <v>17</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50">
@@ -7814,7 +7820,7 @@
         <v>75</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51">
@@ -7825,7 +7831,7 @@
         <v>72</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52">
@@ -7836,7 +7842,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53">
@@ -7847,7 +7853,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54">
@@ -7858,7 +7864,7 @@
         <v>68</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
@@ -7869,7 +7875,7 @@
         <v>78</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56">
@@ -7880,7 +7886,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57">
@@ -7891,7 +7897,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
@@ -7902,7 +7908,7 @@
         <v>63</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59">
@@ -7913,7 +7919,7 @@
         <v>15</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -7935,7 +7941,7 @@
         <v>37</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62">
@@ -7954,10 +7960,10 @@
         <v>58</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
@@ -7968,7 +7974,7 @@
         <v>83</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65">
@@ -7979,7 +7985,7 @@
         <v>85</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66">
@@ -7990,7 +7996,7 @@
         <v>84</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67">
@@ -8001,7 +8007,7 @@
         <v>81</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68">
@@ -8009,10 +8015,10 @@
         <v>79</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69">
@@ -8023,7 +8029,7 @@
         <v>94</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70">
@@ -8045,7 +8051,7 @@
         <v>91</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72">
@@ -8056,7 +8062,7 @@
         <v>88</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73">
@@ -8067,7 +8073,7 @@
         <v>89</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74">
@@ -8078,7 +8084,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75">
@@ -8089,7 +8095,7 @@
         <v>92</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76">
@@ -8100,7 +8106,7 @@
         <v>97</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77">
@@ -8111,7 +8117,7 @@
         <v>95</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78">
@@ -8122,7 +8128,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79">
@@ -8133,7 +8139,7 @@
         <v>96</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80">
@@ -8144,7 +8150,7 @@
         <v>98</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81">
@@ -8152,10 +8158,10 @@
         <v>86</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82">
@@ -8166,7 +8172,7 @@
         <v>102</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83">
@@ -8177,7 +8183,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84">
@@ -8188,7 +8194,7 @@
         <v>104</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85">
@@ -8199,7 +8205,7 @@
         <v>106</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86">
@@ -8207,10 +8213,10 @@
         <v>99</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87">
@@ -8221,7 +8227,7 @@
         <v>114</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88">
@@ -8232,7 +8238,7 @@
         <v>110</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89">
@@ -8243,7 +8249,7 @@
         <v>52</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90">
@@ -8254,7 +8260,7 @@
         <v>42</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91">
@@ -8265,7 +8271,7 @@
         <v>120</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92">
@@ -8273,10 +8279,10 @@
         <v>109</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>310</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93">
@@ -8287,7 +8293,7 @@
         <v>138</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94">
@@ -8298,7 +8304,7 @@
         <v>157</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95">
@@ -8309,7 +8315,7 @@
         <v>142</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96">
@@ -8320,7 +8326,7 @@
         <v>154</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97">
@@ -8331,7 +8337,7 @@
         <v>150</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98">
@@ -8342,7 +8348,7 @@
         <v>144</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99">
@@ -8353,7 +8359,7 @@
         <v>127</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100">
@@ -8364,7 +8370,7 @@
         <v>155</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101">
@@ -8375,7 +8381,7 @@
         <v>156</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102">
@@ -8386,7 +8392,7 @@
         <v>148</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103">
@@ -8397,7 +8403,7 @@
         <v>130</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104">
@@ -8408,7 +8414,7 @@
         <v>135</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105">
@@ -8419,7 +8425,7 @@
         <v>128</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106">
@@ -8430,7 +8436,7 @@
         <v>146</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107">
@@ -8441,7 +8447,7 @@
         <v>124</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108">
@@ -8452,7 +8458,7 @@
         <v>158</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109">
@@ -8463,7 +8469,7 @@
         <v>134</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110">
@@ -8474,7 +8480,7 @@
         <v>151</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111">
@@ -8485,7 +8491,7 @@
         <v>136</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112">
@@ -8496,7 +8502,7 @@
         <v>149</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113">
@@ -8507,7 +8513,7 @@
         <v>132</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114">
@@ -8518,7 +8524,7 @@
         <v>137</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115">
@@ -8529,7 +8535,7 @@
         <v>152</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116">
@@ -8540,7 +8546,7 @@
         <v>126</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117">
@@ -8551,7 +8557,7 @@
         <v>145</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118">
@@ -8562,7 +8568,7 @@
         <v>129</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119">
@@ -8573,7 +8579,7 @@
         <v>159</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120">
@@ -8584,7 +8590,7 @@
         <v>143</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121">
@@ -8595,7 +8601,7 @@
         <v>139</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122">
@@ -8606,7 +8612,7 @@
         <v>140</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123">
@@ -8617,7 +8623,7 @@
         <v>153</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124">
@@ -8628,7 +8634,7 @@
         <v>160</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125">
@@ -8639,7 +8645,7 @@
         <v>131</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126">
@@ -8650,7 +8656,7 @@
         <v>141</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127">
@@ -8658,10 +8664,10 @@
         <v>123</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128">
@@ -8672,7 +8678,7 @@
         <v>164</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129">
@@ -8683,7 +8689,7 @@
         <v>171</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130">
@@ -8705,7 +8711,7 @@
         <v>174</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132">
@@ -8716,7 +8722,7 @@
         <v>166</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133">
@@ -8727,7 +8733,7 @@
         <v>168</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134">
@@ -8738,7 +8744,7 @@
         <v>162</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135">
@@ -8757,10 +8763,10 @@
         <v>161</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="137">
@@ -8782,7 +8788,7 @@
         <v>180</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139">
@@ -8793,7 +8799,7 @@
         <v>179</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140">
@@ -8801,10 +8807,10 @@
         <v>177</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141">
@@ -8815,7 +8821,7 @@
         <v>189</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142">
@@ -8826,7 +8832,7 @@
         <v>185</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143">
@@ -8837,7 +8843,7 @@
         <v>186</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144">
@@ -8848,7 +8854,7 @@
         <v>181</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145">
@@ -8859,7 +8865,7 @@
         <v>62</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146">
@@ -8870,7 +8876,7 @@
         <v>194</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147">
@@ -8881,7 +8887,7 @@
         <v>182</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148">
@@ -8892,7 +8898,7 @@
         <v>196</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149">
@@ -8903,7 +8909,7 @@
         <v>192</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150">
@@ -8914,7 +8920,7 @@
         <v>193</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151">
@@ -8925,7 +8931,7 @@
         <v>183</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152">
@@ -8936,7 +8942,7 @@
         <v>195</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153">
@@ -8947,7 +8953,7 @@
         <v>71</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154">
@@ -8958,7 +8964,7 @@
         <v>188</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155">
@@ -8969,7 +8975,7 @@
         <v>187</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156">
@@ -8980,7 +8986,7 @@
         <v>184</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157">
@@ -8991,7 +8997,7 @@
         <v>191</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158">
@@ -9002,7 +9008,7 @@
         <v>15</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159">
@@ -9013,7 +9019,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160">
@@ -9024,7 +9030,7 @@
         <v>37</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161">
@@ -9035,7 +9041,7 @@
         <v>22</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="162">
@@ -9043,10 +9049,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163">
@@ -9057,7 +9063,7 @@
         <v>204</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="164">
@@ -9068,7 +9074,7 @@
         <v>203</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="165">
@@ -9079,7 +9085,7 @@
         <v>197</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166">
@@ -9090,7 +9096,7 @@
         <v>198</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167">
@@ -9101,7 +9107,7 @@
         <v>199</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168">
@@ -9112,7 +9118,7 @@
         <v>201</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169">
@@ -9123,7 +9129,7 @@
         <v>202</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170">
@@ -9134,7 +9140,7 @@
         <v>205</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171">
@@ -9145,7 +9151,7 @@
         <v>200</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172">
@@ -9156,7 +9162,7 @@
         <v>15</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173">
@@ -9164,7 +9170,7 @@
         <v>190</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>298</v>
@@ -9211,7 +9217,7 @@
         <v>208</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178">
@@ -9222,7 +9228,7 @@
         <v>211</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="179">
@@ -9230,10 +9236,10 @@
         <v>206</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180">
@@ -9244,7 +9250,7 @@
         <v>213</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181">
@@ -9255,7 +9261,7 @@
         <v>214</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182">
@@ -9263,10 +9269,10 @@
         <v>212</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183">
@@ -9299,7 +9305,7 @@
         <v>222</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186">
@@ -9307,10 +9313,10 @@
         <v>216</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187">
@@ -9318,10 +9324,10 @@
         <v>216</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188">
@@ -9329,10 +9335,10 @@
         <v>216</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189">
@@ -9340,10 +9346,10 @@
         <v>216</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190">
@@ -9530,7 +9536,7 @@
         <v>134</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="207">
@@ -9585,7 +9591,7 @@
         <v>137</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="212">
@@ -9596,7 +9602,7 @@
         <v>152</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213">
@@ -9629,7 +9635,7 @@
         <v>129</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="216">
@@ -9695,7 +9701,7 @@
         <v>160</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222">
@@ -9706,7 +9712,7 @@
         <v>131</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223">

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="355">
   <si>
     <t>Class Name</t>
   </si>
@@ -801,163 +801,163 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>clientId</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+    <t>message</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>message</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>spendTime</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t>description</t>
+    <t>url</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>uri</t>
   </si>
   <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>spendTime</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>basePath</t>
   </si>
   <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>totalPage</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>list</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>pageNum</t>
+    <t>AUTHORITY_PREFIX</t>
+  </si>
+  <si>
+    <t>RESOURCE_ROLES_MAP_KEY</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>PORTAL_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_PREFIX</t>
+  </si>
+  <si>
+    <t>USER_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>ADMIN_URL_PATTERN</t>
+  </si>
+  <si>
+    <t>AUTHORITY_CLAIM_NAME</t>
   </si>
   <si>
     <t>ADMIN_CLIENT_ID</t>
   </si>
   <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_PREFIX</t>
-  </si>
-  <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>RESOURCE_ROLES_MAP_KEY</t>
-  </si>
-  <si>
-    <t>PORTAL_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>USER_TOKEN_HEADER</t>
-  </si>
-  <si>
     <t>SUCCESS</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>VALIDATE_FAILED</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>VALIDATE_FAILED</t>
-  </si>
-  <si>
     <t>UNAUTHORIZED</t>
   </si>
   <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>enableSecurity</t>
+  </si>
+  <si>
+    <t>contactUrl</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
     <t>apiBasePackage</t>
   </si>
   <si>
     <t>contactEmail</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>enableSecurity</t>
-  </si>
-  <si>
-    <t>contactUrl</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>errorCode</t>
   </si>
   <si>
     <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>$assertionsDisabled</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -7533,7 +7533,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8193,10 +8193,10 @@
         <v>83</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
@@ -8204,10 +8204,10 @@
         <v>83</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
@@ -8215,10 +8215,10 @@
         <v>83</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63">
@@ -8226,21 +8226,21 @@
         <v>83</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65">
@@ -8248,10 +8248,10 @@
         <v>92</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66">
@@ -8259,10 +8259,10 @@
         <v>92</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67">
@@ -8270,10 +8270,10 @@
         <v>92</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
@@ -8281,7 +8281,7 @@
         <v>92</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>342</v>
@@ -8292,7 +8292,7 @@
         <v>92</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>342</v>
@@ -8303,7 +8303,7 @@
         <v>92</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>342</v>
@@ -8314,7 +8314,7 @@
         <v>92</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>342</v>
@@ -8325,7 +8325,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>342</v>
@@ -8336,7 +8336,7 @@
         <v>92</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>342</v>
@@ -8347,7 +8347,7 @@
         <v>92</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>342</v>
@@ -8358,7 +8358,7 @@
         <v>92</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>342</v>
@@ -8366,24 +8366,24 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78">
@@ -8391,10 +8391,10 @@
         <v>106</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79">
@@ -8402,40 +8402,40 @@
         <v>106</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>318</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>342</v>
@@ -8446,10 +8446,10 @@
         <v>117</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84">
@@ -8457,7 +8457,7 @@
         <v>117</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>318</v>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>342</v>
@@ -8476,10 +8476,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>342</v>
@@ -8487,13 +8487,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88">
@@ -8501,10 +8501,10 @@
         <v>132</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89">
@@ -8512,7 +8512,7 @@
         <v>132</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>342</v>
@@ -8523,7 +8523,7 @@
         <v>132</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>342</v>
@@ -8534,7 +8534,7 @@
         <v>132</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>342</v>
@@ -8545,7 +8545,7 @@
         <v>132</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>342</v>
@@ -8556,7 +8556,7 @@
         <v>132</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>342</v>
@@ -8567,7 +8567,7 @@
         <v>132</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>342</v>
@@ -8578,7 +8578,7 @@
         <v>132</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>342</v>
@@ -8589,10 +8589,10 @@
         <v>132</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97">
@@ -8600,7 +8600,7 @@
         <v>132</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>342</v>
@@ -8611,7 +8611,7 @@
         <v>132</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>342</v>
@@ -8622,10 +8622,10 @@
         <v>132</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100">
@@ -8633,10 +8633,10 @@
         <v>132</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101">
@@ -8644,7 +8644,7 @@
         <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>342</v>
@@ -8655,7 +8655,7 @@
         <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>342</v>
@@ -8666,10 +8666,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104">
@@ -8677,7 +8677,7 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>342</v>
@@ -8688,7 +8688,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>342</v>
@@ -8699,7 +8699,7 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>342</v>
@@ -8710,10 +8710,10 @@
         <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108">
@@ -8721,7 +8721,7 @@
         <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>342</v>
@@ -8732,7 +8732,7 @@
         <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>342</v>
@@ -8743,7 +8743,7 @@
         <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>342</v>
@@ -8754,10 +8754,10 @@
         <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112">
@@ -8765,7 +8765,7 @@
         <v>132</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>342</v>
@@ -8776,7 +8776,7 @@
         <v>132</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>342</v>
@@ -8787,7 +8787,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>342</v>
@@ -8798,10 +8798,10 @@
         <v>132</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116">
@@ -8809,7 +8809,7 @@
         <v>132</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>342</v>
@@ -8820,10 +8820,10 @@
         <v>132</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118">
@@ -8831,7 +8831,7 @@
         <v>132</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>342</v>
@@ -8839,21 +8839,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>342</v>
@@ -8861,24 +8861,24 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123">
@@ -8886,10 +8886,10 @@
         <v>171</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124">
@@ -8897,10 +8897,10 @@
         <v>171</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125">
@@ -8908,10 +8908,10 @@
         <v>171</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126">
@@ -8919,98 +8919,98 @@
         <v>171</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135">
@@ -9018,7 +9018,7 @@
         <v>180</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>342</v>
@@ -9029,7 +9029,7 @@
         <v>180</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>342</v>
@@ -9040,7 +9040,7 @@
         <v>180</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>342</v>
@@ -9051,7 +9051,7 @@
         <v>180</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>342</v>
@@ -9062,7 +9062,7 @@
         <v>180</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>342</v>
@@ -9073,7 +9073,7 @@
         <v>180</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>342</v>
@@ -9084,7 +9084,7 @@
         <v>180</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>342</v>
@@ -9095,7 +9095,7 @@
         <v>180</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>342</v>
@@ -9106,7 +9106,7 @@
         <v>180</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>342</v>
@@ -9117,7 +9117,7 @@
         <v>180</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>342</v>
@@ -9128,7 +9128,7 @@
         <v>180</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>342</v>
@@ -9139,7 +9139,7 @@
         <v>180</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>342</v>
@@ -9150,7 +9150,7 @@
         <v>180</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>342</v>
@@ -9161,10 +9161,10 @@
         <v>180</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149">
@@ -9172,7 +9172,7 @@
         <v>180</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>342</v>
@@ -9183,65 +9183,65 @@
         <v>180</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156">
@@ -9249,7 +9249,7 @@
         <v>202</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>349</v>
@@ -9260,7 +9260,7 @@
         <v>202</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>349</v>
@@ -9271,7 +9271,7 @@
         <v>202</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>349</v>
@@ -9282,10 +9282,10 @@
         <v>202</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160">
@@ -9293,161 +9293,161 @@
         <v>202</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>318</v>
@@ -9455,10 +9455,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>318</v>
@@ -9466,57 +9466,57 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181">
@@ -9524,7 +9524,7 @@
         <v>115</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>318</v>
@@ -9535,7 +9535,7 @@
         <v>115</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>318</v>
@@ -9546,7 +9546,7 @@
         <v>115</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>318</v>
@@ -9557,7 +9557,7 @@
         <v>115</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>318</v>
@@ -9568,7 +9568,7 @@
         <v>115</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>318</v>
@@ -9579,7 +9579,7 @@
         <v>115</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>318</v>
@@ -9590,7 +9590,7 @@
         <v>115</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>318</v>
@@ -9601,7 +9601,7 @@
         <v>115</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>318</v>
@@ -9612,7 +9612,7 @@
         <v>115</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>318</v>
@@ -9623,7 +9623,7 @@
         <v>115</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>318</v>
@@ -9634,7 +9634,7 @@
         <v>115</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>318</v>
@@ -9645,7 +9645,7 @@
         <v>115</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>318</v>
@@ -9656,7 +9656,7 @@
         <v>115</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>318</v>
@@ -9667,7 +9667,7 @@
         <v>115</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>318</v>
@@ -9678,7 +9678,7 @@
         <v>115</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>318</v>
@@ -9689,7 +9689,7 @@
         <v>115</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>318</v>
@@ -9700,7 +9700,7 @@
         <v>115</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>318</v>
@@ -9711,7 +9711,7 @@
         <v>115</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>318</v>
@@ -9722,7 +9722,7 @@
         <v>115</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>318</v>
@@ -9733,7 +9733,7 @@
         <v>115</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>318</v>
@@ -9744,7 +9744,7 @@
         <v>115</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>318</v>
@@ -9755,7 +9755,7 @@
         <v>115</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>318</v>
@@ -9766,7 +9766,7 @@
         <v>115</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>318</v>
@@ -9777,9 +9777,119 @@
         <v>115</v>
       </c>
       <c r="B204" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B214" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C204" t="s" s="0">
+      <c r="C214" t="s" s="0">
         <v>318</v>
       </c>
     </row>
@@ -9848,7 +9958,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -9862,7 +9972,7 @@
         <v>86</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -9876,7 +9986,7 @@
         <v>86</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -9932,7 +10042,7 @@
         <v>86</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -9960,7 +10070,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -9974,7 +10084,7 @@
         <v>86</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -9988,7 +10098,7 @@
         <v>86</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -10002,7 +10112,7 @@
         <v>86</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -10016,7 +10126,7 @@
         <v>86</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -10038,13 +10148,13 @@
         <v>61</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -10052,13 +10162,13 @@
         <v>61</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -10066,7 +10176,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>86</v>
@@ -10080,7 +10190,7 @@
         <v>61</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>86</v>
@@ -10100,7 +10210,7 @@
         <v>86</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -10156,7 +10266,7 @@
         <v>86</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -10184,7 +10294,7 @@
         <v>86</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -10198,7 +10308,7 @@
         <v>86</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -10349,10 +10459,10 @@
         <v>294</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -10360,13 +10470,13 @@
         <v>117</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -10374,13 +10484,13 @@
         <v>117</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
@@ -10416,13 +10526,13 @@
         <v>117</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -10430,13 +10540,13 @@
         <v>117</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -10458,7 +10568,7 @@
         <v>180</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>86</v>
@@ -10472,13 +10582,13 @@
         <v>180</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -10486,7 +10596,7 @@
         <v>180</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>86</v>
@@ -10500,7 +10610,7 @@
         <v>180</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>86</v>
@@ -10514,7 +10624,7 @@
         <v>180</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>86</v>
@@ -10528,13 +10638,13 @@
         <v>180</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -10542,7 +10652,7 @@
         <v>180</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>86</v>
@@ -10570,7 +10680,7 @@
         <v>202</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>86</v>
@@ -10584,7 +10694,7 @@
         <v>202</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>86</v>
@@ -10598,13 +10708,13 @@
         <v>202</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -10612,7 +10722,7 @@
         <v>202</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>86</v>
@@ -10626,7 +10736,7 @@
         <v>202</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>86</v>
@@ -10640,13 +10750,13 @@
         <v>202</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -10668,7 +10778,7 @@
         <v>202</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>86</v>
@@ -10699,10 +10809,10 @@
         <v>309</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -10713,10 +10823,10 @@
         <v>310</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>55</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
@@ -10730,7 +10840,7 @@
         <v>91</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
@@ -10738,7 +10848,7 @@
         <v>232</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>91</v>
@@ -13424,7 +13534,7 @@
         <v>117</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>318</v>
@@ -13441,7 +13551,7 @@
         <v>117</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>318</v>
@@ -13458,7 +13568,7 @@
         <v>117</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>317</v>
@@ -13475,7 +13585,7 @@
         <v>117</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>318</v>
@@ -13492,7 +13602,7 @@
         <v>117</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>317</v>
@@ -13526,7 +13636,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>318</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="355">
   <si>
     <t>Class Name</t>
   </si>
@@ -7533,7 +7533,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8193,10 +8193,10 @@
         <v>83</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -8204,10 +8204,10 @@
         <v>83</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62">
@@ -8215,10 +8215,10 @@
         <v>83</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63">
@@ -8226,21 +8226,21 @@
         <v>83</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65">
@@ -8248,10 +8248,10 @@
         <v>92</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
@@ -8259,10 +8259,10 @@
         <v>92</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67">
@@ -8270,10 +8270,10 @@
         <v>92</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68">
@@ -8281,7 +8281,7 @@
         <v>92</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>342</v>
@@ -8292,7 +8292,7 @@
         <v>92</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>342</v>
@@ -8303,7 +8303,7 @@
         <v>92</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>342</v>
@@ -8314,7 +8314,7 @@
         <v>92</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>342</v>
@@ -8325,7 +8325,7 @@
         <v>92</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>342</v>
@@ -8336,7 +8336,7 @@
         <v>92</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>342</v>
@@ -8347,7 +8347,7 @@
         <v>92</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>342</v>
@@ -8358,7 +8358,7 @@
         <v>92</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>342</v>
@@ -8366,24 +8366,24 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78">
@@ -8391,10 +8391,10 @@
         <v>106</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>318</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79">
@@ -8402,40 +8402,40 @@
         <v>106</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>345</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>342</v>
@@ -8446,10 +8446,10 @@
         <v>117</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84">
@@ -8457,7 +8457,7 @@
         <v>117</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>318</v>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>342</v>
@@ -8476,10 +8476,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>342</v>
@@ -8487,13 +8487,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88">
@@ -8501,10 +8501,10 @@
         <v>132</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89">
@@ -8512,7 +8512,7 @@
         <v>132</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>342</v>
@@ -8523,7 +8523,7 @@
         <v>132</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>342</v>
@@ -8534,7 +8534,7 @@
         <v>132</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>342</v>
@@ -8545,7 +8545,7 @@
         <v>132</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>342</v>
@@ -8556,7 +8556,7 @@
         <v>132</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>342</v>
@@ -8567,7 +8567,7 @@
         <v>132</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>342</v>
@@ -8578,7 +8578,7 @@
         <v>132</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>342</v>
@@ -8589,10 +8589,10 @@
         <v>132</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97">
@@ -8600,7 +8600,7 @@
         <v>132</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>342</v>
@@ -8611,7 +8611,7 @@
         <v>132</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>342</v>
@@ -8622,10 +8622,10 @@
         <v>132</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100">
@@ -8633,10 +8633,10 @@
         <v>132</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101">
@@ -8644,7 +8644,7 @@
         <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>342</v>
@@ -8655,7 +8655,7 @@
         <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>342</v>
@@ -8666,10 +8666,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104">
@@ -8677,7 +8677,7 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>342</v>
@@ -8688,7 +8688,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>342</v>
@@ -8699,7 +8699,7 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>342</v>
@@ -8710,10 +8710,10 @@
         <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108">
@@ -8721,7 +8721,7 @@
         <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>342</v>
@@ -8732,7 +8732,7 @@
         <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>342</v>
@@ -8743,7 +8743,7 @@
         <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>342</v>
@@ -8754,10 +8754,10 @@
         <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112">
@@ -8765,7 +8765,7 @@
         <v>132</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>342</v>
@@ -8776,7 +8776,7 @@
         <v>132</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>342</v>
@@ -8787,7 +8787,7 @@
         <v>132</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>342</v>
@@ -8798,10 +8798,10 @@
         <v>132</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116">
@@ -8809,7 +8809,7 @@
         <v>132</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>342</v>
@@ -8820,10 +8820,10 @@
         <v>132</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118">
@@ -8831,7 +8831,7 @@
         <v>132</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>342</v>
@@ -8839,21 +8839,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>342</v>
@@ -8861,24 +8861,24 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123">
@@ -8886,10 +8886,10 @@
         <v>171</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124">
@@ -8897,10 +8897,10 @@
         <v>171</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125">
@@ -8908,10 +8908,10 @@
         <v>171</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126">
@@ -8919,98 +8919,98 @@
         <v>171</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135">
@@ -9018,7 +9018,7 @@
         <v>180</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>342</v>
@@ -9029,7 +9029,7 @@
         <v>180</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>342</v>
@@ -9040,7 +9040,7 @@
         <v>180</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>342</v>
@@ -9051,7 +9051,7 @@
         <v>180</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>342</v>
@@ -9062,7 +9062,7 @@
         <v>180</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>342</v>
@@ -9073,7 +9073,7 @@
         <v>180</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>342</v>
@@ -9084,7 +9084,7 @@
         <v>180</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>342</v>
@@ -9095,7 +9095,7 @@
         <v>180</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>342</v>
@@ -9106,7 +9106,7 @@
         <v>180</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>342</v>
@@ -9117,7 +9117,7 @@
         <v>180</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>342</v>
@@ -9128,7 +9128,7 @@
         <v>180</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>342</v>
@@ -9139,7 +9139,7 @@
         <v>180</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>342</v>
@@ -9150,7 +9150,7 @@
         <v>180</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>342</v>
@@ -9161,10 +9161,10 @@
         <v>180</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149">
@@ -9172,7 +9172,7 @@
         <v>180</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>342</v>
@@ -9183,65 +9183,65 @@
         <v>180</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156">
@@ -9249,7 +9249,7 @@
         <v>202</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>349</v>
@@ -9260,7 +9260,7 @@
         <v>202</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>349</v>
@@ -9271,7 +9271,7 @@
         <v>202</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>349</v>
@@ -9282,10 +9282,10 @@
         <v>202</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160">
@@ -9293,161 +9293,161 @@
         <v>202</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>317</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>318</v>
@@ -9455,10 +9455,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>318</v>
@@ -9466,57 +9466,57 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181">
@@ -9524,7 +9524,7 @@
         <v>115</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>318</v>
@@ -9535,7 +9535,7 @@
         <v>115</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>318</v>
@@ -9546,7 +9546,7 @@
         <v>115</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>318</v>
@@ -9557,7 +9557,7 @@
         <v>115</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>318</v>
@@ -9568,7 +9568,7 @@
         <v>115</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>318</v>
@@ -9579,7 +9579,7 @@
         <v>115</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>318</v>
@@ -9590,7 +9590,7 @@
         <v>115</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>318</v>
@@ -9601,7 +9601,7 @@
         <v>115</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>318</v>
@@ -9612,7 +9612,7 @@
         <v>115</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>318</v>
@@ -9623,7 +9623,7 @@
         <v>115</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>318</v>
@@ -9634,7 +9634,7 @@
         <v>115</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>318</v>
@@ -9645,7 +9645,7 @@
         <v>115</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>318</v>
@@ -9656,7 +9656,7 @@
         <v>115</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>318</v>
@@ -9667,7 +9667,7 @@
         <v>115</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>318</v>
@@ -9678,7 +9678,7 @@
         <v>115</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>318</v>
@@ -9689,7 +9689,7 @@
         <v>115</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>318</v>
@@ -9700,7 +9700,7 @@
         <v>115</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>318</v>
@@ -9711,7 +9711,7 @@
         <v>115</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>318</v>
@@ -9722,7 +9722,7 @@
         <v>115</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>318</v>
@@ -9733,7 +9733,7 @@
         <v>115</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>318</v>
@@ -9744,7 +9744,7 @@
         <v>115</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>318</v>
@@ -9755,7 +9755,7 @@
         <v>115</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>318</v>
@@ -9766,7 +9766,7 @@
         <v>115</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>318</v>
@@ -9777,119 +9777,9 @@
         <v>115</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B205" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C205" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B206" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="C206" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B207" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="C207" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B208" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="C208" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B209" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="C209" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B210" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="C210" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B211" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="C211" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B212" t="s" s="0">
-        <v>170</v>
-      </c>
-      <c r="C212" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B213" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="C213" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B214" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="C214" t="s" s="0">
         <v>318</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="356">
   <si>
     <t>Class Name</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>28</t>
@@ -7459,7 +7462,7 @@
         <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13">
@@ -7467,7 +7470,7 @@
         <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14">
@@ -7475,7 +7478,7 @@
         <v>180</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15">
@@ -7483,7 +7486,7 @@
         <v>202</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16">
@@ -7491,7 +7494,7 @@
         <v>220</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17">
@@ -7499,7 +7502,7 @@
         <v>227</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18">
@@ -7515,7 +7518,7 @@
         <v>232</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20">
@@ -7523,7 +7526,7 @@
         <v>115</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7533,7 +7536,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7558,7 +7561,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
@@ -7569,7 +7572,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
@@ -7580,7 +7583,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
@@ -7591,7 +7594,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -7602,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7">
@@ -7613,7 +7616,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8">
@@ -7624,7 +7627,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
@@ -7635,7 +7638,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
@@ -7646,7 +7649,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11">
@@ -7657,7 +7660,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
@@ -7668,7 +7671,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13">
@@ -7679,7 +7682,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14">
@@ -7690,7 +7693,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15">
@@ -7701,7 +7704,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16">
@@ -7712,7 +7715,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17">
@@ -7723,18 +7726,18 @@
         <v>17</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19">
@@ -7742,10 +7745,10 @@
         <v>41</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20">
@@ -7753,10 +7756,10 @@
         <v>41</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
@@ -7764,10 +7767,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22">
@@ -7775,10 +7778,10 @@
         <v>41</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23">
@@ -7786,10 +7789,10 @@
         <v>41</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24">
@@ -7797,10 +7800,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25">
@@ -7808,10 +7811,10 @@
         <v>41</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26">
@@ -7819,10 +7822,10 @@
         <v>41</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27">
@@ -7830,10 +7833,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28">
@@ -7841,10 +7844,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29">
@@ -7852,10 +7855,10 @@
         <v>41</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30">
@@ -7863,10 +7866,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31">
@@ -7874,10 +7877,10 @@
         <v>41</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32">
@@ -7885,10 +7888,10 @@
         <v>41</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
@@ -7896,43 +7899,43 @@
         <v>41</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
@@ -7940,10 +7943,10 @@
         <v>61</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
@@ -7951,10 +7954,10 @@
         <v>61</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
@@ -7962,10 +7965,10 @@
         <v>61</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
@@ -7973,10 +7976,10 @@
         <v>61</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
@@ -7984,10 +7987,10 @@
         <v>61</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42">
@@ -7995,10 +7998,10 @@
         <v>61</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
@@ -8006,10 +8009,10 @@
         <v>61</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
@@ -8017,10 +8020,10 @@
         <v>61</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
@@ -8028,10 +8031,10 @@
         <v>61</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46">
@@ -8039,10 +8042,10 @@
         <v>61</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
@@ -8050,10 +8053,10 @@
         <v>61</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48">
@@ -8061,10 +8064,10 @@
         <v>61</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49">
@@ -8072,10 +8075,10 @@
         <v>61</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
@@ -8083,10 +8086,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51">
@@ -8094,10 +8097,10 @@
         <v>61</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52">
@@ -8105,10 +8108,10 @@
         <v>61</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53">
@@ -8116,10 +8119,10 @@
         <v>61</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54">
@@ -8127,10 +8130,10 @@
         <v>61</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55">
@@ -8138,10 +8141,10 @@
         <v>61</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56">
@@ -8149,10 +8152,10 @@
         <v>61</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57">
@@ -8160,10 +8163,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58">
@@ -8171,10 +8174,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59">
@@ -8182,109 +8185,109 @@
         <v>61</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69">
@@ -8292,10 +8295,10 @@
         <v>92</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70">
@@ -8303,10 +8306,10 @@
         <v>92</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71">
@@ -8314,10 +8317,10 @@
         <v>92</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72">
@@ -8325,10 +8328,10 @@
         <v>92</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73">
@@ -8336,10 +8339,10 @@
         <v>92</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74">
@@ -8347,10 +8350,10 @@
         <v>92</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75">
@@ -8358,197 +8361,197 @@
         <v>92</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93">
@@ -8556,10 +8559,10 @@
         <v>132</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94">
@@ -8567,10 +8570,10 @@
         <v>132</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95">
@@ -8578,10 +8581,10 @@
         <v>132</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96">
@@ -8589,10 +8592,10 @@
         <v>132</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97">
@@ -8600,10 +8603,10 @@
         <v>132</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98">
@@ -8611,10 +8614,10 @@
         <v>132</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99">
@@ -8622,10 +8625,10 @@
         <v>132</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100">
@@ -8633,10 +8636,10 @@
         <v>132</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101">
@@ -8644,10 +8647,10 @@
         <v>132</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102">
@@ -8655,10 +8658,10 @@
         <v>132</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103">
@@ -8666,10 +8669,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104">
@@ -8677,10 +8680,10 @@
         <v>132</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105">
@@ -8688,10 +8691,10 @@
         <v>132</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106">
@@ -8699,10 +8702,10 @@
         <v>132</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107">
@@ -8710,10 +8713,10 @@
         <v>132</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108">
@@ -8721,10 +8724,10 @@
         <v>132</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109">
@@ -8732,10 +8735,10 @@
         <v>132</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110">
@@ -8743,10 +8746,10 @@
         <v>132</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111">
@@ -8754,10 +8757,10 @@
         <v>132</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112">
@@ -8765,10 +8768,10 @@
         <v>132</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113">
@@ -8776,10 +8779,10 @@
         <v>132</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114">
@@ -8787,10 +8790,10 @@
         <v>132</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115">
@@ -8798,10 +8801,10 @@
         <v>132</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116">
@@ -8809,10 +8812,10 @@
         <v>132</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117">
@@ -8820,10 +8823,10 @@
         <v>132</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118">
@@ -8831,252 +8834,252 @@
         <v>132</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>318</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141">
@@ -9084,10 +9087,10 @@
         <v>180</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142">
@@ -9095,10 +9098,10 @@
         <v>180</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143">
@@ -9106,10 +9109,10 @@
         <v>180</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144">
@@ -9117,10 +9120,10 @@
         <v>180</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145">
@@ -9128,10 +9131,10 @@
         <v>180</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146">
@@ -9139,10 +9142,10 @@
         <v>180</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147">
@@ -9150,10 +9153,10 @@
         <v>180</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148">
@@ -9161,10 +9164,10 @@
         <v>180</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149">
@@ -9172,10 +9175,10 @@
         <v>180</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150">
@@ -9183,150 +9186,150 @@
         <v>180</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>317</v>
@@ -9334,219 +9337,219 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>318</v>
@@ -9554,10 +9557,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>318</v>
@@ -9565,57 +9568,57 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190">
@@ -9623,7 +9626,7 @@
         <v>115</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>318</v>
@@ -9634,7 +9637,7 @@
         <v>115</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>318</v>
@@ -9645,7 +9648,7 @@
         <v>115</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>318</v>
@@ -9656,7 +9659,7 @@
         <v>115</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>318</v>
@@ -9667,7 +9670,7 @@
         <v>115</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>318</v>
@@ -9678,7 +9681,7 @@
         <v>115</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>318</v>
@@ -9689,7 +9692,7 @@
         <v>115</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>318</v>
@@ -9700,7 +9703,7 @@
         <v>115</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>318</v>
@@ -9711,7 +9714,7 @@
         <v>115</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>318</v>
@@ -9722,7 +9725,7 @@
         <v>115</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>318</v>
@@ -9733,7 +9736,7 @@
         <v>115</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>318</v>
@@ -9744,7 +9747,7 @@
         <v>115</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>318</v>
@@ -9755,7 +9758,7 @@
         <v>115</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>318</v>
@@ -9766,7 +9769,7 @@
         <v>115</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>318</v>
@@ -9777,9 +9780,218 @@
         <v>115</v>
       </c>
       <c r="B204" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B223" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C204" t="s" s="0">
+      <c r="C223" t="s" s="0">
         <v>318</v>
       </c>
     </row>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -801,79 +801,94 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>clientId</t>
+    <t>code</t>
   </si>
   <si>
     <t>message</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>basePath</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
     <t>spendTime</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>parameter</t>
+    <t>uri</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>basePath</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>totalPage</t>
+  </si>
+  <si>
     <t>pageNum</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>totalPage</t>
-  </si>
-  <si>
     <t>pageSize</t>
   </si>
   <si>
-    <t>list</t>
+    <t>USER_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>AUTHORITY_CLAIM_NAME</t>
+  </si>
+  <si>
+    <t>PORTAL_CLIENT_ID</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>ADMIN_URL_PATTERN</t>
   </si>
   <si>
     <t>AUTHORITY_PREFIX</t>
@@ -882,31 +897,22 @@
     <t>RESOURCE_ROLES_MAP_KEY</t>
   </si>
   <si>
-    <t>JWT_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>PORTAL_CLIENT_ID</t>
-  </si>
-  <si>
     <t>JWT_TOKEN_PREFIX</t>
   </si>
   <si>
-    <t>USER_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
-  </si>
-  <si>
     <t>ADMIN_CLIENT_ID</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>$VALUES</t>
+    <t>FAILED</t>
   </si>
   <si>
     <t>VALIDATE_FAILED</t>
@@ -915,49 +921,43 @@
     <t>FORBIDDEN</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>contactUrl</t>
+  </si>
+  <si>
+    <t>contactEmail</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
     <t>enableSecurity</t>
   </si>
   <si>
-    <t>contactUrl</t>
-  </si>
-  <si>
-    <t>contactName</t>
+    <t>title</t>
   </si>
   <si>
     <t>apiBasePackage</t>
   </si>
   <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
     <t>errorCode</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -10060,7 +10060,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -10088,7 +10088,7 @@
         <v>86</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -10130,7 +10130,7 @@
         <v>86</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -10144,7 +10144,7 @@
         <v>86</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -10158,7 +10158,7 @@
         <v>86</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -10194,13 +10194,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -10208,13 +10208,13 @@
         <v>61</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -10222,7 +10222,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>86</v>
@@ -10236,7 +10236,7 @@
         <v>61</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>86</v>
@@ -10250,7 +10250,7 @@
         <v>61</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>86</v>
@@ -10270,7 +10270,7 @@
         <v>86</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -10284,7 +10284,7 @@
         <v>86</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -10298,7 +10298,7 @@
         <v>86</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -10312,7 +10312,7 @@
         <v>86</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -10354,7 +10354,7 @@
         <v>86</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -10368,7 +10368,7 @@
         <v>86</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -10410,7 +10410,7 @@
         <v>86</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -10544,13 +10544,13 @@
         <v>117</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -10558,7 +10558,7 @@
         <v>117</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>86</v>
@@ -10572,13 +10572,13 @@
         <v>117</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>117</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -10586,13 +10586,13 @@
         <v>117</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -10600,7 +10600,7 @@
         <v>117</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -10614,7 +10614,7 @@
         <v>117</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -10628,7 +10628,7 @@
         <v>117</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -10642,13 +10642,13 @@
         <v>117</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -10670,7 +10670,7 @@
         <v>180</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>86</v>
@@ -10684,13 +10684,13 @@
         <v>180</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -10698,7 +10698,7 @@
         <v>180</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>86</v>
@@ -10712,7 +10712,7 @@
         <v>180</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>86</v>
@@ -10746,7 +10746,7 @@
         <v>86</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -10782,7 +10782,7 @@
         <v>202</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>86</v>
@@ -10796,13 +10796,13 @@
         <v>202</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -10810,13 +10810,13 @@
         <v>202</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -10824,7 +10824,7 @@
         <v>202</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>86</v>
@@ -10852,7 +10852,7 @@
         <v>202</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>86</v>
@@ -10866,7 +10866,7 @@
         <v>202</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>86</v>
@@ -10880,7 +10880,7 @@
         <v>202</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>86</v>
@@ -10914,7 +10914,7 @@
         <v>91</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
@@ -10925,10 +10925,10 @@
         <v>310</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -10939,10 +10939,10 @@
         <v>311</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>55</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66">
@@ -10950,7 +10950,7 @@
         <v>232</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>91</v>
@@ -13619,7 +13619,7 @@
         <v>117</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>317</v>
@@ -13636,7 +13636,7 @@
         <v>117</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>318</v>
@@ -13653,7 +13653,7 @@
         <v>117</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>318</v>
@@ -13670,7 +13670,7 @@
         <v>117</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>317</v>
@@ -13687,7 +13687,7 @@
         <v>117</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>318</v>
@@ -13704,7 +13704,7 @@
         <v>117</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>317</v>
@@ -13721,7 +13721,7 @@
         <v>117</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>318</v>
@@ -13738,7 +13738,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>318</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -804,160 +804,160 @@
     <t>status</t>
   </si>
   <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>message</t>
   </si>
   <si>
-    <t>data</t>
+    <t>method</t>
+  </si>
+  <si>
+    <t>basePath</t>
+  </si>
+  <si>
+    <t>spendTime</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>uri</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>basePath</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>spendTime</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>totalPage</t>
+  </si>
+  <si>
     <t>list</t>
   </si>
   <si>
-    <t>totalPage</t>
-  </si>
-  <si>
-    <t>pageNum</t>
-  </si>
-  <si>
-    <t>pageSize</t>
+    <t>JWT_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>ADMIN_URL_PATTERN</t>
+  </si>
+  <si>
+    <t>AUTHORITY_CLAIM_NAME</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_PREFIX</t>
+  </si>
+  <si>
+    <t>AUTHORITY_PREFIX</t>
+  </si>
+  <si>
+    <t>RESOURCE_ROLES_MAP_KEY</t>
+  </si>
+  <si>
+    <t>PORTAL_CLIENT_ID</t>
   </si>
   <si>
     <t>USER_TOKEN_HEADER</t>
   </si>
   <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
-  </si>
-  <si>
-    <t>PORTAL_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>ADMIN_URL_PATTERN</t>
-  </si>
-  <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>RESOURCE_ROLES_MAP_KEY</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_PREFIX</t>
-  </si>
-  <si>
     <t>ADMIN_CLIENT_ID</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
+    <t>VALIDATE_FAILED</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
     <t>UNAUTHORIZED</t>
   </si>
   <si>
-    <t>SUCCESS</t>
+    <t>FORBIDDEN</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>VALIDATE_FAILED</t>
-  </si>
-  <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>apiBasePackage</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>contactUrl</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>version</t>
   </si>
   <si>
-    <t>contactUrl</t>
-  </si>
-  <si>
     <t>contactEmail</t>
   </si>
   <si>
-    <t>contactName</t>
-  </si>
-  <si>
     <t>enableSecurity</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>apiBasePackage</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
-    <t>errorCode</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -10088,7 +10088,7 @@
         <v>86</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -10102,7 +10102,7 @@
         <v>86</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -10116,7 +10116,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -10130,7 +10130,7 @@
         <v>86</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -10158,7 +10158,7 @@
         <v>86</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -10172,7 +10172,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -10194,7 +10194,7 @@
         <v>61</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>86</v>
@@ -10214,7 +10214,7 @@
         <v>86</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -10228,7 +10228,7 @@
         <v>86</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -10256,7 +10256,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -10284,7 +10284,7 @@
         <v>86</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -10298,7 +10298,7 @@
         <v>86</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -10312,7 +10312,7 @@
         <v>86</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -10326,7 +10326,7 @@
         <v>86</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -10368,7 +10368,7 @@
         <v>86</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -10410,7 +10410,7 @@
         <v>86</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -10544,7 +10544,7 @@
         <v>117</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>86</v>
@@ -10558,13 +10558,13 @@
         <v>117</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -10572,13 +10572,13 @@
         <v>117</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -10712,7 +10712,7 @@
         <v>180</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>86</v>
@@ -10726,7 +10726,7 @@
         <v>180</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>86</v>
@@ -10740,13 +10740,13 @@
         <v>180</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -10774,7 +10774,7 @@
         <v>86</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -10782,7 +10782,7 @@
         <v>202</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>86</v>
@@ -10796,7 +10796,7 @@
         <v>202</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>86</v>
@@ -10810,7 +10810,7 @@
         <v>202</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>86</v>
@@ -10824,7 +10824,7 @@
         <v>202</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>86</v>
@@ -10838,7 +10838,7 @@
         <v>202</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>86</v>
@@ -10852,7 +10852,7 @@
         <v>202</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>86</v>
@@ -10866,7 +10866,7 @@
         <v>202</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>86</v>
@@ -10880,7 +10880,7 @@
         <v>202</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>86</v>
@@ -10914,7 +10914,7 @@
         <v>91</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -10925,10 +10925,10 @@
         <v>310</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
@@ -10939,10 +10939,10 @@
         <v>311</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>231</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
@@ -10950,7 +10950,7 @@
         <v>232</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>91</v>
@@ -13636,7 +13636,7 @@
         <v>117</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>318</v>
@@ -13653,7 +13653,7 @@
         <v>117</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>318</v>
@@ -13670,7 +13670,7 @@
         <v>117</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>317</v>
@@ -13687,7 +13687,7 @@
         <v>117</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>318</v>
@@ -13704,7 +13704,7 @@
         <v>117</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>317</v>
@@ -13738,7 +13738,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>318</v>

--- a/data/mall-swarm/mall-common_structure.xlsx
+++ b/data/mall-swarm/mall-common_structure.xlsx
@@ -801,22 +801,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>roles</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>clientId</t>
   </si>
   <si>
-    <t>roles</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>password</t>
+    <t>message</t>
   </si>
   <si>
     <t>code</t>
@@ -825,82 +828,91 @@
     <t>data</t>
   </si>
   <si>
-    <t>message</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>basePath</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>startTime</t>
   </si>
   <si>
     <t>method</t>
   </si>
   <si>
-    <t>basePath</t>
-  </si>
-  <si>
     <t>spendTime</t>
   </si>
   <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>uri</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
     <t>result</t>
   </si>
   <si>
-    <t>startTime</t>
-  </si>
-  <si>
     <t>this$0</t>
   </si>
   <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>totalPage</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>pageNum</t>
-  </si>
-  <si>
-    <t>totalPage</t>
-  </si>
-  <si>
     <t>list</t>
   </si>
   <si>
+    <t>AUTHORITY_PREFIX</t>
+  </si>
+  <si>
+    <t>RESOURCE_ROLES_MAP_KEY</t>
+  </si>
+  <si>
+    <t>JWT_TOKEN_PREFIX</t>
+  </si>
+  <si>
+    <t>USER_TOKEN_HEADER</t>
+  </si>
+  <si>
+    <t>ADMIN_CLIENT_ID</t>
+  </si>
+  <si>
     <t>JWT_TOKEN_HEADER</t>
   </si>
   <si>
+    <t>AUTHORITY_CLAIM_NAME</t>
+  </si>
+  <si>
+    <t>PORTAL_CLIENT_ID</t>
+  </si>
+  <si>
     <t>ADMIN_URL_PATTERN</t>
   </si>
   <si>
-    <t>AUTHORITY_CLAIM_NAME</t>
-  </si>
-  <si>
-    <t>JWT_TOKEN_PREFIX</t>
-  </si>
-  <si>
-    <t>AUTHORITY_PREFIX</t>
-  </si>
-  <si>
-    <t>RESOURCE_ROLES_MAP_KEY</t>
-  </si>
-  <si>
-    <t>PORTAL_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>USER_TOKEN_HEADER</t>
-  </si>
-  <si>
-    <t>ADMIN_CLIENT_ID</t>
+    <t>UNAUTHORIZED</t>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>$VALUES</t>
@@ -909,52 +921,40 @@
     <t>VALIDATE_FAILED</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED</t>
-  </si>
-  <si>
-    <t>FORBIDDEN</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>contactUrl</t>
+  </si>
+  <si>
+    <t>enableSecurity</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
     <t>apiBasePackage</t>
   </si>
   <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>contactUrl</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>contactEmail</t>
   </si>
   <si>
-    <t>enableSecurity</t>
-  </si>
-  <si>
     <t>LOGGER</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>errorCode</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
-  </si>
-  <si>
-    <t>errorCode</t>
   </si>
   <si>
     <t>serialVersionUID</t>
@@ -10060,7 +10060,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -10074,7 +10074,7 @@
         <v>86</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -10088,7 +10088,7 @@
         <v>86</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -10116,7 +10116,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -10130,7 +10130,7 @@
         <v>86</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -10144,7 +10144,7 @@
         <v>86</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -10158,7 +10158,7 @@
         <v>86</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -10172,7 +10172,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -10194,7 +10194,7 @@
         <v>61</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>86</v>
@@ -10208,7 +10208,7 @@
         <v>61</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>86</v>
@@ -10228,7 +10228,7 @@
         <v>86</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -10242,7 +10242,7 @@
         <v>86</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -10256,7 +10256,7 @@
         <v>86</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -10284,7 +10284,7 @@
         <v>86</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -10312,7 +10312,7 @@
         <v>86</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -10326,7 +10326,7 @@
         <v>86</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -10354,7 +10354,7 @@
         <v>86</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -10396,7 +10396,7 @@
         <v>86</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -10544,13 +10544,13 @@
         <v>117</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -10558,7 +10558,7 @@
         <v>117</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>86</v>
@@ -10572,13 +10572,13 @@
         <v>117</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -10586,7 +10586,7 @@
         <v>117</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -10600,7 +10600,7 @@
         <v>117</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -10614,13 +10614,13 @@
         <v>117</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -10628,7 +10628,7 @@
         <v>117</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -10642,13 +10642,13 @@
         <v>117</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -10670,7 +10670,7 @@
         <v>180</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>86</v>
@@ -10684,7 +10684,7 @@
         <v>180</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>86</v>
@@ -10698,7 +10698,7 @@
         <v>180</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>86</v>
@@ -10712,13 +10712,13 @@
         <v>180</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -10726,7 +10726,7 @@
         <v>180</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>86</v>
@@ -10740,7 +10740,7 @@
         <v>180</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>86</v>
@@ -10774,7 +10774,7 @@
         <v>86</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -10782,7 +10782,7 @@
         <v>202</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>86</v>
@@ -10796,13 +10796,13 @@
         <v>202</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -10810,7 +10810,7 @@
         <v>202</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>86</v>
@@ -10824,7 +10824,7 @@
         <v>202</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>86</v>
@@ -10838,7 +10838,7 @@
         <v>202</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>86</v>
@@ -10852,13 +10852,13 @@
         <v>202</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>86</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -10866,7 +10866,7 @@
         <v>202</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>86</v>
@@ -10880,7 +10880,7 @@
         <v>202</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>86</v>
@@ -10911,10 +10911,10 @@
         <v>309</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>9</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
@@ -10925,10 +10925,10 @@
         <v>310</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>231</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -13636,7 +13636,7 @@
         <v>117</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>318</v>
@@ -13653,7 +13653,7 @@
         <v>117</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>318</v>
@@ -13670,7 +13670,7 @@
         <v>117</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>317</v>
@@ -13687,7 +13687,7 @@
         <v>117</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>318</v>
@@ -13704,7 +13704,7 @@
         <v>117</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>317</v>
@@ -13738,7 +13738,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>318</v>
